--- a/Data/Figure_1/Figure_1B_for_github.xlsx
+++ b/Data/Figure_1/Figure_1B_for_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michealmacaogain/Code/Neisseria/Data/Figure_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F81997F-7B5C-8442-A69D-04ABDC96C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475C27D-F35E-0F49-9BF6-75056B5DF772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15480" xr2:uid="{F7EAD95A-59B3-D84D-B0FA-3B7895CF04CC}"/>
   </bookViews>
@@ -2032,7 +2032,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
